--- a/22354119_唐嘉隆_实验结果.xlsx
+++ b/22354119_唐嘉隆_实验结果.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cosette\Desktop\移动机器人规划与控制大作业1.25\git\22354073_梁凯_移动机器人规划与控制期末作业\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cosette\Desktop\移动机器人规划与控制大作业1.25\git2\22354119_唐嘉隆_移动机器人规划与控制期末作业\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32D143A3-46F5-4534-805C-FA8F45F3D708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CCDDBE-9B72-4AE5-A61B-066079C41B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="3060" windowWidth="10270" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,8 +391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -435,19 +435,19 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>3.5604752305876501E-2</v>
+        <v>3.5672347039392899E-2</v>
       </c>
       <c r="D2">
-        <v>76.119276762008596</v>
+        <v>75.9293465614318</v>
       </c>
       <c r="E2">
-        <v>32.665323245308002</v>
+        <v>32.248636160372897</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.19313164738656699</v>
+        <v>0.50376107664665204</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
